--- a/Code/Results/Cases/Case_4_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.069822420672466</v>
+        <v>0.7011360897942325</v>
       </c>
       <c r="C2">
-        <v>0.08889165016066869</v>
+        <v>0.09138559414594027</v>
       </c>
       <c r="D2">
-        <v>0.3065423425086067</v>
+        <v>0.5253506651051936</v>
       </c>
       <c r="E2">
-        <v>0.07873803603319729</v>
+        <v>0.1747827742252959</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4824830508834879</v>
+        <v>1.008271734476686</v>
       </c>
       <c r="H2">
-        <v>0.4049895427790631</v>
+        <v>1.043231717979182</v>
       </c>
       <c r="I2">
-        <v>0.4310071297514675</v>
+        <v>1.049214072128652</v>
       </c>
       <c r="J2">
-        <v>0.02371085701574227</v>
+        <v>0.06770085765665623</v>
       </c>
       <c r="K2">
-        <v>0.904120216458864</v>
+        <v>0.3980671867563217</v>
       </c>
       <c r="L2">
-        <v>0.2751202694419419</v>
+        <v>0.4045994965825628</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9356092165932441</v>
+        <v>1.961518450726162</v>
       </c>
       <c r="O2">
-        <v>1.817134600008885</v>
+        <v>4.157373876161742</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9336995025725798</v>
+        <v>0.6638106077515999</v>
       </c>
       <c r="C3">
-        <v>0.08450529007835428</v>
+        <v>0.0898668924220587</v>
       </c>
       <c r="D3">
-        <v>0.2856293620629344</v>
+        <v>0.5226808074215938</v>
       </c>
       <c r="E3">
-        <v>0.07581977489064329</v>
+        <v>0.1749137090186856</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4743834289712865</v>
+        <v>1.013000170442346</v>
       </c>
       <c r="H3">
-        <v>0.4068251548422879</v>
+        <v>1.049165964137671</v>
       </c>
       <c r="I3">
-        <v>0.43467451057899</v>
+        <v>1.05636871015702</v>
       </c>
       <c r="J3">
-        <v>0.02407810178428438</v>
+        <v>0.06801714651369384</v>
       </c>
       <c r="K3">
-        <v>0.7862291596418345</v>
+        <v>0.363722809498654</v>
       </c>
       <c r="L3">
-        <v>0.2508094173428645</v>
+        <v>0.4000635777885293</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9747012104229587</v>
+        <v>1.978905184088631</v>
       </c>
       <c r="O3">
-        <v>1.803450848122324</v>
+        <v>4.179558577959611</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8503553534350488</v>
+        <v>0.6411001105670664</v>
       </c>
       <c r="C4">
-        <v>0.08180613817503257</v>
+        <v>0.08892529442586294</v>
       </c>
       <c r="D4">
-        <v>0.2731059941141751</v>
+        <v>0.521259367455059</v>
       </c>
       <c r="E4">
-        <v>0.07411172565087654</v>
+        <v>0.1750553637824339</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4702560085243022</v>
+        <v>1.016385639884518</v>
       </c>
       <c r="H4">
-        <v>0.4084784504497065</v>
+        <v>1.053161599193864</v>
       </c>
       <c r="I4">
-        <v>0.4375914802416006</v>
+        <v>1.061172504155849</v>
       </c>
       <c r="J4">
-        <v>0.02431953022288535</v>
+        <v>0.06822422476673573</v>
       </c>
       <c r="K4">
-        <v>0.7139132956754679</v>
+        <v>0.3426975251385755</v>
       </c>
       <c r="L4">
-        <v>0.2361101761103157</v>
+        <v>0.3974397261793285</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9997103724951257</v>
+        <v>1.990133867750661</v>
       </c>
       <c r="O4">
-        <v>1.797934126703851</v>
+        <v>4.19492982190981</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8164418443357135</v>
+        <v>0.6318983678428935</v>
       </c>
       <c r="C5">
-        <v>0.08070447809952697</v>
+        <v>0.08853931514092039</v>
       </c>
       <c r="D5">
-        <v>0.2680788979467366</v>
+        <v>0.5207350663344101</v>
       </c>
       <c r="E5">
-        <v>0.07343607825075615</v>
+        <v>0.1751285337742559</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4687785840124974</v>
+        <v>1.017886587439975</v>
       </c>
       <c r="H5">
-        <v>0.4092809425492803</v>
+        <v>1.054878487899963</v>
       </c>
       <c r="I5">
-        <v>0.4389425306744918</v>
+        <v>1.063233491529751</v>
       </c>
       <c r="J5">
-        <v>0.02442188934838363</v>
+        <v>0.06831185544675034</v>
       </c>
       <c r="K5">
-        <v>0.6844538554701529</v>
+        <v>0.3341458351585089</v>
       </c>
       <c r="L5">
-        <v>0.2301742204868873</v>
+        <v>0.396411188651939</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.010150166455671</v>
+        <v>1.994848814605944</v>
       </c>
       <c r="O5">
-        <v>1.796386773574483</v>
+        <v>4.201634165518115</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.810813280848663</v>
+        <v>0.6303736479797806</v>
       </c>
       <c r="C6">
-        <v>0.08052143664153277</v>
+        <v>0.08847508703663465</v>
       </c>
       <c r="D6">
-        <v>0.2672486598053325</v>
+        <v>0.5206513300205984</v>
       </c>
       <c r="E6">
-        <v>0.07332510038168216</v>
+        <v>0.1751416175867977</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4685453804504931</v>
+        <v>1.018143150017259</v>
       </c>
       <c r="H6">
-        <v>0.4094218713429711</v>
+        <v>1.05516893299805</v>
       </c>
       <c r="I6">
-        <v>0.4391765382536335</v>
+        <v>1.06358196507184</v>
       </c>
       <c r="J6">
-        <v>0.02443912515282243</v>
+        <v>0.06832660262505907</v>
       </c>
       <c r="K6">
-        <v>0.6795625171656781</v>
+        <v>0.3327268352466746</v>
       </c>
       <c r="L6">
-        <v>0.2291917378070423</v>
+        <v>0.3962428639512865</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.011898551703506</v>
+        <v>1.995640135404433</v>
       </c>
       <c r="O6">
-        <v>1.796171457261551</v>
+        <v>4.20277403118024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8498977939898964</v>
+        <v>0.6409757971264014</v>
       </c>
       <c r="C7">
-        <v>0.08179128813770831</v>
+        <v>0.08892009813969537</v>
       </c>
       <c r="D7">
-        <v>0.2730378926148518</v>
+        <v>0.5212520738493822</v>
       </c>
       <c r="E7">
-        <v>0.07410253191273952</v>
+        <v>0.1750562879908575</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4702352658261688</v>
+        <v>1.016405390761818</v>
       </c>
       <c r="H7">
-        <v>0.4084887563846138</v>
+        <v>1.05318439470846</v>
       </c>
       <c r="I7">
-        <v>0.4376090499147267</v>
+        <v>1.061199880548774</v>
       </c>
       <c r="J7">
-        <v>0.02432089462114995</v>
+        <v>0.06822539343843825</v>
       </c>
       <c r="K7">
-        <v>0.7135159652758318</v>
+        <v>0.3425821273044818</v>
       </c>
       <c r="L7">
-        <v>0.2360299067373717</v>
+        <v>0.397425689939368</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9998501677267395</v>
+        <v>1.990196891595748</v>
       </c>
       <c r="O7">
-        <v>1.797910453143871</v>
+        <v>4.19501845512471</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.0228324318918</v>
+        <v>0.6882236595091342</v>
       </c>
       <c r="C8">
-        <v>0.08738030402435015</v>
+        <v>0.09086384798684577</v>
       </c>
       <c r="D8">
-        <v>0.299263530532258</v>
+        <v>0.5243849768894506</v>
       </c>
       <c r="E8">
-        <v>0.07771401947205803</v>
+        <v>0.174815229752916</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4795097460976763</v>
+        <v>1.009802073744723</v>
       </c>
       <c r="H8">
-        <v>0.4055110516810103</v>
+        <v>1.045204867008387</v>
       </c>
       <c r="I8">
-        <v>0.4321305689350119</v>
+        <v>1.051595785442636</v>
       </c>
       <c r="J8">
-        <v>0.02383415481468365</v>
+        <v>0.06780724589561604</v>
       </c>
       <c r="K8">
-        <v>0.8634521312761478</v>
+        <v>0.3862126744688226</v>
       </c>
       <c r="L8">
-        <v>0.2666886715481525</v>
+        <v>0.4030021459768847</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9488763247253189</v>
+        <v>1.96739863223198</v>
       </c>
       <c r="O8">
-        <v>1.811802399837148</v>
+        <v>4.164660267664175</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.36429297851916</v>
+        <v>0.7824931297759861</v>
       </c>
       <c r="C9">
-        <v>0.09830600516493604</v>
+        <v>0.09460253976102706</v>
       </c>
       <c r="D9">
-        <v>0.3533776897344012</v>
+        <v>0.5322508577049234</v>
       </c>
       <c r="E9">
-        <v>0.08549286088228314</v>
+        <v>0.174826948318767</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5047938206078015</v>
+        <v>1.000675547149086</v>
       </c>
       <c r="H9">
-        <v>0.4040158053579432</v>
+        <v>1.032344461923103</v>
       </c>
       <c r="I9">
-        <v>0.4268965914799061</v>
+        <v>1.036017595402868</v>
       </c>
       <c r="J9">
-        <v>0.02300765730728216</v>
+        <v>0.06708910942508428</v>
       </c>
       <c r="K9">
-        <v>1.158410038885137</v>
+        <v>0.4722434878469244</v>
       </c>
       <c r="L9">
-        <v>0.3287698908443275</v>
+        <v>0.4152105195179843</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8571235784646216</v>
+        <v>1.927076582049656</v>
       </c>
       <c r="O9">
-        <v>1.863108978536161</v>
+        <v>4.118993156618814</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.617294746730323</v>
+        <v>0.8527055232074474</v>
       </c>
       <c r="C10">
-        <v>0.1063316985302123</v>
+        <v>0.09730412768531949</v>
       </c>
       <c r="D10">
-        <v>0.395021666612962</v>
+        <v>0.5390724765395447</v>
       </c>
       <c r="E10">
-        <v>0.09167994192469209</v>
+        <v>0.1751288588293924</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5282614243838708</v>
+        <v>0.9962968811046267</v>
       </c>
       <c r="H10">
-        <v>0.4058122977460101</v>
+        <v>1.02458810733485</v>
       </c>
       <c r="I10">
-        <v>0.4267470692231079</v>
+        <v>1.026551344896305</v>
       </c>
       <c r="J10">
-        <v>0.02248066778390445</v>
+        <v>0.0666231524240315</v>
       </c>
       <c r="K10">
-        <v>1.376264772951828</v>
+        <v>0.5357132069724173</v>
       </c>
       <c r="L10">
-        <v>0.375803000148494</v>
+        <v>0.424948970695695</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7950328949240451</v>
+        <v>1.900119210462831</v>
       </c>
       <c r="O10">
-        <v>1.917189757783063</v>
+        <v>4.093871736418123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.733022532329585</v>
+        <v>0.8848472613600222</v>
       </c>
       <c r="C11">
-        <v>0.1099872441048575</v>
+        <v>0.09852318844839658</v>
       </c>
       <c r="D11">
-        <v>0.4144345998548573</v>
+        <v>0.5424006946140594</v>
       </c>
       <c r="E11">
-        <v>0.09460815182091409</v>
+        <v>0.1753294766748823</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5401321252438862</v>
+        <v>0.9948093806492153</v>
       </c>
       <c r="H11">
-        <v>0.4073161960935039</v>
+        <v>1.021425503641751</v>
       </c>
       <c r="I11">
-        <v>0.4275605355862595</v>
+        <v>1.022673485223308</v>
       </c>
       <c r="J11">
-        <v>0.02225886435701607</v>
+        <v>0.06642447333777746</v>
       </c>
       <c r="K11">
-        <v>1.47576041305345</v>
+        <v>0.5646394687800012</v>
       </c>
       <c r="L11">
-        <v>0.3975620184561279</v>
+        <v>0.4295447966362786</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7680155994412026</v>
+        <v>1.888433465460547</v>
       </c>
       <c r="O11">
-        <v>1.945753206330068</v>
+        <v>4.08426933504802</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.776951509068482</v>
+        <v>0.8970468013840787</v>
       </c>
       <c r="C12">
-        <v>0.1113725829823196</v>
+        <v>0.09898337324067086</v>
       </c>
       <c r="D12">
-        <v>0.421858270350782</v>
+        <v>0.5436932136172743</v>
       </c>
       <c r="E12">
-        <v>0.09573429817002221</v>
+        <v>0.1754145067768675</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5448108265761391</v>
+        <v>0.9943185591838812</v>
       </c>
       <c r="H12">
-        <v>0.407989568462412</v>
+        <v>1.02028039031444</v>
       </c>
       <c r="I12">
-        <v>0.4280023242076894</v>
+        <v>1.021266550856325</v>
       </c>
       <c r="J12">
-        <v>0.02217749719413398</v>
+        <v>0.06635114240476003</v>
       </c>
       <c r="K12">
-        <v>1.513505128755895</v>
+        <v>0.5756002438632493</v>
       </c>
       <c r="L12">
-        <v>0.4058585114619291</v>
+        <v>0.4313088042791975</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7579681563165224</v>
+        <v>1.884091326253182</v>
       </c>
       <c r="O12">
-        <v>1.957174763878101</v>
+        <v>4.080895257319355</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.767485699665713</v>
+        <v>0.8944181732577761</v>
       </c>
       <c r="C13">
-        <v>0.1110741714715928</v>
+        <v>0.09888432893190213</v>
       </c>
       <c r="D13">
-        <v>0.4202561468082706</v>
+        <v>0.5434134172533334</v>
       </c>
       <c r="E13">
-        <v>0.09549097739343182</v>
+        <v>0.1753957916721376</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5437948289333576</v>
+        <v>0.9944210446273587</v>
       </c>
       <c r="H13">
-        <v>0.4078398404459307</v>
+        <v>1.020524677859285</v>
       </c>
       <c r="I13">
-        <v>0.4279011129414982</v>
+        <v>1.021566824099793</v>
       </c>
       <c r="J13">
-        <v>0.02219490354333065</v>
+        <v>0.06636685092642303</v>
       </c>
       <c r="K13">
-        <v>1.505372919370359</v>
+        <v>0.5732393430443494</v>
       </c>
       <c r="L13">
-        <v>0.4040691101632916</v>
+        <v>0.4309278436930413</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7601237823435074</v>
+        <v>1.885022792455883</v>
       </c>
       <c r="O13">
-        <v>1.954687422253102</v>
+        <v>4.081610272092689</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.736634400737529</v>
+        <v>0.8858503653493699</v>
       </c>
       <c r="C14">
-        <v>0.1101011930564653</v>
+        <v>0.09856107726051988</v>
       </c>
       <c r="D14">
-        <v>0.4150438687683504</v>
+        <v>0.5425063866334057</v>
       </c>
       <c r="E14">
-        <v>0.09470044826244362</v>
+        <v>0.1753362907886462</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5405132973872782</v>
+        <v>0.9947675485920371</v>
       </c>
       <c r="H14">
-        <v>0.4073694824046328</v>
+        <v>1.021330242983439</v>
       </c>
       <c r="I14">
-        <v>0.4275941597980548</v>
+        <v>1.022556503219654</v>
       </c>
       <c r="J14">
-        <v>0.02225211734378618</v>
+        <v>0.06641840222368067</v>
       </c>
       <c r="K14">
-        <v>1.478864264820118</v>
+        <v>0.5655410813715491</v>
       </c>
       <c r="L14">
-        <v>0.3982434098955139</v>
+        <v>0.4296894492221526</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.767185273713844</v>
+        <v>1.888074571717343</v>
       </c>
       <c r="O14">
-        <v>1.946680524599884</v>
+        <v>4.083986495935761</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.717751241394666</v>
+        <v>0.8806059777450059</v>
       </c>
       <c r="C15">
-        <v>0.1095053665456547</v>
+        <v>0.09836288715415265</v>
       </c>
       <c r="D15">
-        <v>0.411860781566503</v>
+        <v>0.5419549920651576</v>
       </c>
       <c r="E15">
-        <v>0.09421850805521714</v>
+        <v>0.1753010235726862</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5385275230634363</v>
+        <v>0.9949892270878848</v>
       </c>
       <c r="H15">
-        <v>0.407095060462467</v>
+        <v>1.021830508290378</v>
       </c>
       <c r="I15">
-        <v>0.4274237744415927</v>
+        <v>1.023170720678188</v>
       </c>
       <c r="J15">
-        <v>0.0222875057420131</v>
+        <v>0.06645022672533241</v>
       </c>
       <c r="K15">
-        <v>1.462636141090172</v>
+        <v>0.5608265689498637</v>
       </c>
       <c r="L15">
-        <v>0.3946825409559978</v>
+        <v>0.4289339741658296</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7715347371933916</v>
+        <v>1.889954683096851</v>
       </c>
       <c r="O15">
-        <v>1.941855973832759</v>
+        <v>4.085476129900769</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.609745630692601</v>
+        <v>0.8506089722367847</v>
       </c>
       <c r="C16">
-        <v>0.1060929263100618</v>
+        <v>0.0972242579377891</v>
       </c>
       <c r="D16">
-        <v>0.3937628406628164</v>
+        <v>0.5388594838236003</v>
       </c>
       <c r="E16">
-        <v>0.09149094395510105</v>
+        <v>0.1751170179715338</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5275106768474842</v>
+        <v>0.9964042364643433</v>
       </c>
       <c r="H16">
-        <v>0.4057282639237201</v>
+        <v>1.024802142729129</v>
       </c>
       <c r="I16">
-        <v>0.4267122331917363</v>
+        <v>1.026813385989758</v>
       </c>
       <c r="J16">
-        <v>0.02249552786219677</v>
+        <v>0.06663640341388355</v>
       </c>
       <c r="K16">
-        <v>1.369771356176415</v>
+        <v>0.5338238279257155</v>
       </c>
       <c r="L16">
-        <v>0.3743886938991778</v>
+        <v>0.4246519437874952</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7968238251003275</v>
+        <v>1.900894516676146</v>
       </c>
       <c r="O16">
-        <v>1.915405776675158</v>
+        <v>4.094535978430372</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.54366019859566</v>
+        <v>0.8322578520106845</v>
       </c>
       <c r="C17">
-        <v>0.1040009610416206</v>
+        <v>0.09652319268110432</v>
       </c>
       <c r="D17">
-        <v>0.3827838896199012</v>
+        <v>0.5370180086787428</v>
       </c>
       <c r="E17">
-        <v>0.08984744578145865</v>
+        <v>0.1750203157622003</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5210663875588608</v>
+        <v>0.9974014349313052</v>
       </c>
       <c r="H17">
-        <v>0.4050692072572701</v>
+        <v>1.026718759240666</v>
       </c>
       <c r="I17">
-        <v>0.4265063401669948</v>
+        <v>1.029157709909626</v>
       </c>
       <c r="J17">
-        <v>0.02262776689878443</v>
+        <v>0.06675401554012073</v>
       </c>
       <c r="K17">
-        <v>1.312910228471509</v>
+        <v>0.5172717604865795</v>
       </c>
       <c r="L17">
-        <v>0.3620353165099743</v>
+        <v>0.4220673918234326</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8126571323766552</v>
+        <v>1.907753598032503</v>
       </c>
       <c r="O17">
-        <v>1.900218741219248</v>
+        <v>4.100561192761973</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.505708583249543</v>
+        <v>0.8217218153855015</v>
       </c>
       <c r="C18">
-        <v>0.1027981267463787</v>
+        <v>0.09611902752732249</v>
       </c>
       <c r="D18">
-        <v>0.3765129047061038</v>
+        <v>0.5359800315355869</v>
       </c>
       <c r="E18">
-        <v>0.08891278870152775</v>
+        <v>0.174970653475885</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5174715591947745</v>
+        <v>0.9980224754031468</v>
       </c>
       <c r="H18">
-        <v>0.4047544418079667</v>
+        <v>1.02785558356166</v>
       </c>
       <c r="I18">
-        <v>0.4264704432101283</v>
+        <v>1.030546429087231</v>
       </c>
       <c r="J18">
-        <v>0.02270551167478096</v>
+        <v>0.06682291393304052</v>
       </c>
       <c r="K18">
-        <v>1.280241418285385</v>
+        <v>0.5077565315769448</v>
       </c>
       <c r="L18">
-        <v>0.3549638976548692</v>
+        <v>0.420596437617462</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8218791920037329</v>
+        <v>1.911753099074456</v>
       </c>
       <c r="O18">
-        <v>1.891854217499457</v>
+        <v>4.104198578713067</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.492868538701288</v>
+        <v>0.8181577909414841</v>
       </c>
       <c r="C19">
-        <v>0.1023909263062848</v>
+        <v>0.09598202495048724</v>
       </c>
       <c r="D19">
-        <v>0.3743970353639696</v>
+        <v>0.5356322348143294</v>
       </c>
       <c r="E19">
-        <v>0.08859812916973198</v>
+        <v>0.1749548631969269</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.516273262416405</v>
+        <v>0.9982409054877905</v>
       </c>
       <c r="H19">
-        <v>0.4046587608780925</v>
+        <v>1.028246410594789</v>
       </c>
       <c r="I19">
-        <v>0.4264722569224553</v>
+        <v>1.031023553850034</v>
       </c>
       <c r="J19">
-        <v>0.02273212261939594</v>
+        <v>0.06684645679488366</v>
       </c>
       <c r="K19">
-        <v>1.269186202901267</v>
+        <v>0.5045357320649089</v>
       </c>
       <c r="L19">
-        <v>0.3525753275160923</v>
+        <v>0.4201010842228641</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8250212001903208</v>
+        <v>1.913116594690495</v>
       </c>
       <c r="O19">
-        <v>1.88908474749519</v>
+        <v>4.105459659973064</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.550688903850954</v>
+        <v>0.8342093954491929</v>
       </c>
       <c r="C20">
-        <v>0.1042236092208029</v>
+        <v>0.09659791879071378</v>
       </c>
       <c r="D20">
-        <v>0.3839480475636918</v>
+        <v>0.5372118448857464</v>
       </c>
       <c r="E20">
-        <v>0.09002129110050561</v>
+        <v>0.1750299934998942</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.521740744561626</v>
+        <v>0.997290368104629</v>
       </c>
       <c r="H20">
-        <v>0.4051326732688239</v>
+        <v>1.02651116878728</v>
       </c>
       <c r="I20">
-        <v>0.42651966724695</v>
+        <v>1.02890397956908</v>
       </c>
       <c r="J20">
-        <v>0.02261351516756083</v>
+        <v>0.06674136609856163</v>
       </c>
       <c r="K20">
-        <v>1.318959364917106</v>
+        <v>0.5190332351954794</v>
       </c>
       <c r="L20">
-        <v>0.3633468121644512</v>
+        <v>0.4223409072498185</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8109596829712391</v>
+        <v>1.907017813367425</v>
       </c>
       <c r="O20">
-        <v>1.901796815160026</v>
+        <v>4.099902015980547</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.745693199635127</v>
+        <v>0.8883661807246597</v>
       </c>
       <c r="C21">
-        <v>0.1103869482026099</v>
+        <v>0.09865606356600409</v>
       </c>
       <c r="D21">
-        <v>0.4165728346354456</v>
+        <v>0.5427719310560519</v>
       </c>
       <c r="E21">
-        <v>0.09493216854913911</v>
+        <v>0.1753535220501128</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5414720854803647</v>
+        <v>0.9946638058899993</v>
       </c>
       <c r="H21">
-        <v>0.4075047762090662</v>
+        <v>1.021092205090824</v>
       </c>
       <c r="I21">
-        <v>0.4276806317555213</v>
+        <v>1.02226414123988</v>
       </c>
       <c r="J21">
-        <v>0.02223524063386151</v>
+        <v>0.06640320871826688</v>
       </c>
       <c r="K21">
-        <v>1.486648561963335</v>
+        <v>0.5678020620940174</v>
       </c>
       <c r="L21">
-        <v>0.3999529792527028</v>
+        <v>0.4300525546867249</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7651061081721462</v>
+        <v>1.887175937723164</v>
       </c>
       <c r="O21">
-        <v>1.949015625931025</v>
+        <v>4.083281429730647</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.873761132581052</v>
+        <v>0.9239245206647979</v>
       </c>
       <c r="C22">
-        <v>0.1144214528685978</v>
+        <v>0.09999273502953088</v>
       </c>
       <c r="D22">
-        <v>0.4383196359973454</v>
+        <v>0.5465933499265816</v>
       </c>
       <c r="E22">
-        <v>0.09824301163391524</v>
+        <v>0.1756177601106721</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.555443310177651</v>
+        <v>0.9933695326831185</v>
       </c>
       <c r="H22">
-        <v>0.4096631829023636</v>
+        <v>1.017856537560434</v>
       </c>
       <c r="I22">
-        <v>0.4292225148139366</v>
+        <v>1.01828321479168</v>
       </c>
       <c r="J22">
-        <v>0.02200334052897723</v>
+        <v>0.06619330152678948</v>
       </c>
       <c r="K22">
-        <v>1.596644667498452</v>
+        <v>0.5997159577314335</v>
       </c>
       <c r="L22">
-        <v>0.4242107738370606</v>
+        <v>0.4352304400901659</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.736210718607115</v>
+        <v>1.874691899932079</v>
       </c>
       <c r="O22">
-        <v>1.983421473494616</v>
+        <v>4.073946722725111</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.805347167176478</v>
+        <v>0.9049316640746952</v>
       </c>
       <c r="C23">
-        <v>0.1122674348745534</v>
+        <v>0.09928010854380886</v>
       </c>
       <c r="D23">
-        <v>0.4266723790890694</v>
+        <v>0.5445366772943316</v>
       </c>
       <c r="E23">
-        <v>0.09646635460570607</v>
+        <v>0.1754719134651559</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5478841415782512</v>
+        <v>0.9940216886972877</v>
       </c>
       <c r="H23">
-        <v>0.4084537782777318</v>
+        <v>1.019555515604068</v>
       </c>
       <c r="I23">
-        <v>0.4283255070897738</v>
+        <v>1.020375123479575</v>
       </c>
       <c r="J23">
-        <v>0.02212569155540223</v>
+        <v>0.06630431947790427</v>
       </c>
       <c r="K23">
-        <v>1.537896946562768</v>
+        <v>0.5826794150010812</v>
       </c>
       <c r="L23">
-        <v>0.411231828227514</v>
+        <v>0.4324543447012701</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7515322309330781</v>
+        <v>1.88131060504182</v>
       </c>
       <c r="O23">
-        <v>1.964721698821535</v>
+        <v>4.078789154446923</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.547511097110998</v>
+        <v>0.8333270581564989</v>
       </c>
       <c r="C24">
-        <v>0.1041229504309271</v>
+        <v>0.0965641385826288</v>
       </c>
       <c r="D24">
-        <v>0.3834216045489569</v>
+        <v>0.5371241470115535</v>
       </c>
       <c r="E24">
-        <v>0.08994266389514749</v>
+        <v>0.1750255997110592</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5214355257613903</v>
+        <v>0.9973404327124769</v>
       </c>
       <c r="H24">
-        <v>0.4051037809035591</v>
+        <v>1.026604911600018</v>
       </c>
       <c r="I24">
-        <v>0.4265133857108161</v>
+        <v>1.029018563537413</v>
       </c>
       <c r="J24">
-        <v>0.02261995302516784</v>
+        <v>0.06674708091856907</v>
       </c>
       <c r="K24">
-        <v>1.316224484499742</v>
+        <v>0.5182368700139648</v>
       </c>
       <c r="L24">
-        <v>0.3627537896898048</v>
+        <v>0.4222172043799901</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8117267288275478</v>
+        <v>1.907350286790439</v>
       </c>
       <c r="O24">
-        <v>1.901082228385292</v>
+        <v>4.100199489616898</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.271598373274145</v>
+        <v>0.7568210759460783</v>
       </c>
       <c r="C25">
-        <v>0.09535206414221165</v>
+        <v>0.09359901468520349</v>
       </c>
       <c r="D25">
-        <v>0.3384259454117284</v>
+        <v>0.5299393105586461</v>
       </c>
       <c r="E25">
-        <v>0.08330916451838632</v>
+        <v>0.174772125453476</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.49713760350717</v>
+        <v>1.002735669575571</v>
       </c>
       <c r="H25">
-        <v>0.4039306123791135</v>
+        <v>1.035525865861487</v>
       </c>
       <c r="I25">
-        <v>0.4276890014904282</v>
+        <v>1.039883968608088</v>
       </c>
       <c r="J25">
-        <v>0.02321732294970857</v>
+        <v>0.06727252552293628</v>
       </c>
       <c r="K25">
-        <v>1.078458443840447</v>
+        <v>0.4489219365526367</v>
       </c>
       <c r="L25">
-        <v>0.3117427905555985</v>
+        <v>0.4117722823806531</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8810348991564201</v>
+        <v>1.937515936779519</v>
       </c>
       <c r="O25">
-        <v>1.846481581938804</v>
+        <v>4.129865273353431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7011360897942325</v>
+        <v>1.069822420672523</v>
       </c>
       <c r="C2">
-        <v>0.09138559414594027</v>
+        <v>0.08889165016026368</v>
       </c>
       <c r="D2">
-        <v>0.5253506651051936</v>
+        <v>0.306542342508564</v>
       </c>
       <c r="E2">
-        <v>0.1747827742252959</v>
+        <v>0.07873803603317597</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.008271734476686</v>
+        <v>0.4824830508835305</v>
       </c>
       <c r="H2">
-        <v>1.043231717979182</v>
+        <v>0.4049895427790702</v>
       </c>
       <c r="I2">
-        <v>1.049214072128652</v>
+        <v>0.4310071297514746</v>
       </c>
       <c r="J2">
-        <v>0.06770085765665623</v>
+        <v>0.0237108570158453</v>
       </c>
       <c r="K2">
-        <v>0.3980671867563217</v>
+        <v>0.9041202164588924</v>
       </c>
       <c r="L2">
-        <v>0.4045994965825628</v>
+        <v>0.2751202694419845</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.961518450726162</v>
+        <v>0.9356092165932468</v>
       </c>
       <c r="O2">
-        <v>4.157373876161742</v>
+        <v>1.817134600008984</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6638106077515999</v>
+        <v>0.9336995025723525</v>
       </c>
       <c r="C3">
-        <v>0.0898668924220587</v>
+        <v>0.08450529007811269</v>
       </c>
       <c r="D3">
-        <v>0.5226808074215938</v>
+        <v>0.2856293620628634</v>
       </c>
       <c r="E3">
-        <v>0.1749137090186856</v>
+        <v>0.07581977489061487</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.013000170442346</v>
+        <v>0.474383428971187</v>
       </c>
       <c r="H3">
-        <v>1.049165964137671</v>
+        <v>0.4068251548423021</v>
       </c>
       <c r="I3">
-        <v>1.05636871015702</v>
+        <v>0.4346745105789758</v>
       </c>
       <c r="J3">
-        <v>0.06801714651369384</v>
+        <v>0.02407810178418934</v>
       </c>
       <c r="K3">
-        <v>0.363722809498654</v>
+        <v>0.7862291596418629</v>
       </c>
       <c r="L3">
-        <v>0.4000635777885293</v>
+        <v>0.2508094173428645</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.978905184088631</v>
+        <v>0.9747012104230146</v>
       </c>
       <c r="O3">
-        <v>4.179558577959611</v>
+        <v>1.803450848122395</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6411001105670664</v>
+        <v>0.8503553534348782</v>
       </c>
       <c r="C4">
-        <v>0.08892529442586294</v>
+        <v>0.08180613817502547</v>
       </c>
       <c r="D4">
-        <v>0.521259367455059</v>
+        <v>0.2731059941142178</v>
       </c>
       <c r="E4">
-        <v>0.1750553637824339</v>
+        <v>0.07411172565090496</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.016385639884518</v>
+        <v>0.4702560085244301</v>
       </c>
       <c r="H4">
-        <v>1.053161599193864</v>
+        <v>0.4084784504497136</v>
       </c>
       <c r="I4">
-        <v>1.061172504155849</v>
+        <v>0.4375914802415934</v>
       </c>
       <c r="J4">
-        <v>0.06822422476673573</v>
+        <v>0.0243195302227015</v>
       </c>
       <c r="K4">
-        <v>0.3426975251385755</v>
+        <v>0.7139132956753258</v>
       </c>
       <c r="L4">
-        <v>0.3974397261793285</v>
+        <v>0.2361101761102447</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.990133867750661</v>
+        <v>0.9997103724951213</v>
       </c>
       <c r="O4">
-        <v>4.19492982190981</v>
+        <v>1.797934126703879</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6318983678428935</v>
+        <v>0.8164418443358556</v>
       </c>
       <c r="C5">
-        <v>0.08853931514092039</v>
+        <v>0.08070447809975434</v>
       </c>
       <c r="D5">
-        <v>0.5207350663344101</v>
+        <v>0.2680788979465234</v>
       </c>
       <c r="E5">
-        <v>0.1751285337742559</v>
+        <v>0.07343607825078102</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.017886587439975</v>
+        <v>0.4687785840124974</v>
       </c>
       <c r="H5">
-        <v>1.054878487899963</v>
+        <v>0.4092809425492803</v>
       </c>
       <c r="I5">
-        <v>1.063233491529751</v>
+        <v>0.4389425306744847</v>
       </c>
       <c r="J5">
-        <v>0.06831185544675034</v>
+        <v>0.02442188934837031</v>
       </c>
       <c r="K5">
-        <v>0.3341458351585089</v>
+        <v>0.6844538554701387</v>
       </c>
       <c r="L5">
-        <v>0.396411188651939</v>
+        <v>0.230174220486802</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.994848814605944</v>
+        <v>1.010150166455658</v>
       </c>
       <c r="O5">
-        <v>4.201634165518115</v>
+        <v>1.796386773574454</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6303736479797806</v>
+        <v>0.8108132808484925</v>
       </c>
       <c r="C6">
-        <v>0.08847508703663465</v>
+        <v>0.08052143664153277</v>
       </c>
       <c r="D6">
-        <v>0.5206513300205984</v>
+        <v>0.2672486598053467</v>
       </c>
       <c r="E6">
-        <v>0.1751416175867977</v>
+        <v>0.07332510038166618</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.018143150017259</v>
+        <v>0.4685453804505002</v>
       </c>
       <c r="H6">
-        <v>1.05516893299805</v>
+        <v>0.4094218713429711</v>
       </c>
       <c r="I6">
-        <v>1.06358196507184</v>
+        <v>0.4391765382536299</v>
       </c>
       <c r="J6">
-        <v>0.06832660262505907</v>
+        <v>0.02443912515281532</v>
       </c>
       <c r="K6">
-        <v>0.3327268352466746</v>
+        <v>0.6795625171656781</v>
       </c>
       <c r="L6">
-        <v>0.3962428639512865</v>
+        <v>0.229191737807021</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.995640135404433</v>
+        <v>1.011898551703506</v>
       </c>
       <c r="O6">
-        <v>4.20277403118024</v>
+        <v>1.796171457261551</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6409757971264014</v>
+        <v>0.8498977939899532</v>
       </c>
       <c r="C7">
-        <v>0.08892009813969537</v>
+        <v>0.08179128813746672</v>
       </c>
       <c r="D7">
-        <v>0.5212520738493822</v>
+        <v>0.2730378926148092</v>
       </c>
       <c r="E7">
-        <v>0.1750562879908575</v>
+        <v>0.07410253191272353</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.016405390761818</v>
+        <v>0.470235265826247</v>
       </c>
       <c r="H7">
-        <v>1.05318439470846</v>
+        <v>0.4084887563846209</v>
       </c>
       <c r="I7">
-        <v>1.061199880548774</v>
+        <v>0.4376090499147551</v>
       </c>
       <c r="J7">
-        <v>0.06822539343843825</v>
+        <v>0.02432089462115528</v>
       </c>
       <c r="K7">
-        <v>0.3425821273044818</v>
+        <v>0.7135159652758603</v>
       </c>
       <c r="L7">
-        <v>0.397425689939368</v>
+        <v>0.2360299067374712</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.990196891595748</v>
+        <v>0.9998501677267706</v>
       </c>
       <c r="O7">
-        <v>4.19501845512471</v>
+        <v>1.797910453143899</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6882236595091342</v>
+        <v>1.022832431892027</v>
       </c>
       <c r="C8">
-        <v>0.09086384798684577</v>
+        <v>0.08738030402457753</v>
       </c>
       <c r="D8">
-        <v>0.5243849768894506</v>
+        <v>0.2992635305322722</v>
       </c>
       <c r="E8">
-        <v>0.174815229752916</v>
+        <v>0.07771401947207224</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.009802073744723</v>
+        <v>0.4795097460977118</v>
       </c>
       <c r="H8">
-        <v>1.045204867008387</v>
+        <v>0.405511051681124</v>
       </c>
       <c r="I8">
-        <v>1.051595785442636</v>
+        <v>0.4321305689350154</v>
       </c>
       <c r="J8">
-        <v>0.06780724589561604</v>
+        <v>0.02383415481461881</v>
       </c>
       <c r="K8">
-        <v>0.3862126744688226</v>
+        <v>0.8634521312760342</v>
       </c>
       <c r="L8">
-        <v>0.4030021459768847</v>
+        <v>0.2666886715481525</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.96739863223198</v>
+        <v>0.9488763247253322</v>
       </c>
       <c r="O8">
-        <v>4.164660267664175</v>
+        <v>1.811802399837049</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7824931297759861</v>
+        <v>1.364292978519217</v>
       </c>
       <c r="C9">
-        <v>0.09460253976102706</v>
+        <v>0.09830600516470156</v>
       </c>
       <c r="D9">
-        <v>0.5322508577049234</v>
+        <v>0.3533776897341738</v>
       </c>
       <c r="E9">
-        <v>0.174826948318767</v>
+        <v>0.08549286088231867</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.000675547149086</v>
+        <v>0.5047938206077873</v>
       </c>
       <c r="H9">
-        <v>1.032344461923103</v>
+        <v>0.4040158053579432</v>
       </c>
       <c r="I9">
-        <v>1.036017595402868</v>
+        <v>0.426896591479899</v>
       </c>
       <c r="J9">
-        <v>0.06708910942508428</v>
+        <v>0.02300765730735321</v>
       </c>
       <c r="K9">
-        <v>0.4722434878469244</v>
+        <v>1.158410038885023</v>
       </c>
       <c r="L9">
-        <v>0.4152105195179843</v>
+        <v>0.3287698908443986</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.927076582049656</v>
+        <v>0.8571235784646198</v>
       </c>
       <c r="O9">
-        <v>4.118993156618814</v>
+        <v>1.863108978536104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8527055232074474</v>
+        <v>1.617294746730465</v>
       </c>
       <c r="C10">
-        <v>0.09730412768531949</v>
+        <v>0.1063316985302052</v>
       </c>
       <c r="D10">
-        <v>0.5390724765395447</v>
+        <v>0.3950216666130757</v>
       </c>
       <c r="E10">
-        <v>0.1751288588293924</v>
+        <v>0.09167994192469209</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.9962968811046267</v>
+        <v>0.5282614243838282</v>
       </c>
       <c r="H10">
-        <v>1.02458810733485</v>
+        <v>0.4058122977459959</v>
       </c>
       <c r="I10">
-        <v>1.026551344896305</v>
+        <v>0.4267470692231328</v>
       </c>
       <c r="J10">
-        <v>0.0666231524240315</v>
+        <v>0.02248066778379165</v>
       </c>
       <c r="K10">
-        <v>0.5357132069724173</v>
+        <v>1.376264772951799</v>
       </c>
       <c r="L10">
-        <v>0.424948970695695</v>
+        <v>0.3758030001485082</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.900119210462831</v>
+        <v>0.7950328949240628</v>
       </c>
       <c r="O10">
-        <v>4.093871736418123</v>
+        <v>1.917189757783149</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8848472613600222</v>
+        <v>1.73302253232967</v>
       </c>
       <c r="C11">
-        <v>0.09852318844839658</v>
+        <v>0.1099872441048646</v>
       </c>
       <c r="D11">
-        <v>0.5424006946140594</v>
+        <v>0.4144345998548857</v>
       </c>
       <c r="E11">
-        <v>0.1753294766748823</v>
+        <v>0.09460815182089277</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.9948093806492153</v>
+        <v>0.5401321252439573</v>
       </c>
       <c r="H11">
-        <v>1.021425503641751</v>
+        <v>0.4073161960934897</v>
       </c>
       <c r="I11">
-        <v>1.022673485223308</v>
+        <v>0.4275605355862524</v>
       </c>
       <c r="J11">
-        <v>0.06642447333777746</v>
+        <v>0.02225886435715463</v>
       </c>
       <c r="K11">
-        <v>0.5646394687800012</v>
+        <v>1.475760413053365</v>
       </c>
       <c r="L11">
-        <v>0.4295447966362786</v>
+        <v>0.3975620184562416</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.888433465460547</v>
+        <v>0.7680155994412203</v>
       </c>
       <c r="O11">
-        <v>4.08426933504802</v>
+        <v>1.945753206330039</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8970468013840787</v>
+        <v>1.776951509068454</v>
       </c>
       <c r="C12">
-        <v>0.09898337324067086</v>
+        <v>0.1113725829822272</v>
       </c>
       <c r="D12">
-        <v>0.5436932136172743</v>
+        <v>0.4218582703510094</v>
       </c>
       <c r="E12">
-        <v>0.1754145067768675</v>
+        <v>0.09573429817005064</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.9943185591838812</v>
+        <v>0.5448108265761249</v>
       </c>
       <c r="H12">
-        <v>1.02028039031444</v>
+        <v>0.407989568462412</v>
       </c>
       <c r="I12">
-        <v>1.021266550856325</v>
+        <v>0.4280023242076965</v>
       </c>
       <c r="J12">
-        <v>0.06635114240476003</v>
+        <v>0.02217749719401318</v>
       </c>
       <c r="K12">
-        <v>0.5756002438632493</v>
+        <v>1.513505128755867</v>
       </c>
       <c r="L12">
-        <v>0.4313088042791975</v>
+        <v>0.4058585114620428</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.884091326253182</v>
+        <v>0.7579681563165828</v>
       </c>
       <c r="O12">
-        <v>4.080895257319355</v>
+        <v>1.957174763878101</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8944181732577761</v>
+        <v>1.767485699665684</v>
       </c>
       <c r="C13">
-        <v>0.09888432893190213</v>
+        <v>0.1110741714714649</v>
       </c>
       <c r="D13">
-        <v>0.5434134172533334</v>
+        <v>0.4202561468083559</v>
       </c>
       <c r="E13">
-        <v>0.1753957916721376</v>
+        <v>0.09549097739344603</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.9944210446273587</v>
+        <v>0.5437948289333292</v>
       </c>
       <c r="H13">
-        <v>1.020524677859285</v>
+        <v>0.4078398404459449</v>
       </c>
       <c r="I13">
-        <v>1.021566824099793</v>
+        <v>0.4279011129415267</v>
       </c>
       <c r="J13">
-        <v>0.06636685092642303</v>
+        <v>0.02219490354334841</v>
       </c>
       <c r="K13">
-        <v>0.5732393430443494</v>
+        <v>1.505372919370473</v>
       </c>
       <c r="L13">
-        <v>0.4309278436930413</v>
+        <v>0.4040691101632206</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.885022792455883</v>
+        <v>0.7601237823435643</v>
       </c>
       <c r="O13">
-        <v>4.081610272092689</v>
+        <v>1.954687422253102</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8858503653493699</v>
+        <v>1.736634400737529</v>
       </c>
       <c r="C14">
-        <v>0.09856107726051988</v>
+        <v>0.1101011930563658</v>
       </c>
       <c r="D14">
-        <v>0.5425063866334057</v>
+        <v>0.4150438687682083</v>
       </c>
       <c r="E14">
-        <v>0.1753362907886462</v>
+        <v>0.09470044826243296</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9947675485920371</v>
+        <v>0.5405132973872497</v>
       </c>
       <c r="H14">
-        <v>1.021330242983439</v>
+        <v>0.4073694824046328</v>
       </c>
       <c r="I14">
-        <v>1.022556503219654</v>
+        <v>0.4275941597980477</v>
       </c>
       <c r="J14">
-        <v>0.06641840222368067</v>
+        <v>0.02225211734376487</v>
       </c>
       <c r="K14">
-        <v>0.5655410813715491</v>
+        <v>1.478864264820146</v>
       </c>
       <c r="L14">
-        <v>0.4296894492221526</v>
+        <v>0.3982434098955707</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.888074571717343</v>
+        <v>0.7671852737138245</v>
       </c>
       <c r="O14">
-        <v>4.083986495935761</v>
+        <v>1.946680524599884</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8806059777450059</v>
+        <v>1.717751241394609</v>
       </c>
       <c r="C15">
-        <v>0.09836288715415265</v>
+        <v>0.1095053665458821</v>
       </c>
       <c r="D15">
-        <v>0.5419549920651576</v>
+        <v>0.4118607815664888</v>
       </c>
       <c r="E15">
-        <v>0.1753010235726862</v>
+        <v>0.09421850805521359</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.9949892270878848</v>
+        <v>0.538527523063479</v>
       </c>
       <c r="H15">
-        <v>1.021830508290378</v>
+        <v>0.4070950604624528</v>
       </c>
       <c r="I15">
-        <v>1.023170720678188</v>
+        <v>0.4274237744415927</v>
       </c>
       <c r="J15">
-        <v>0.06645022672533241</v>
+        <v>0.02228750574195804</v>
       </c>
       <c r="K15">
-        <v>0.5608265689498637</v>
+        <v>1.462636141090144</v>
       </c>
       <c r="L15">
-        <v>0.4289339741658296</v>
+        <v>0.3946825409561541</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.889954683096851</v>
+        <v>0.7715347371933206</v>
       </c>
       <c r="O15">
-        <v>4.085476129900769</v>
+        <v>1.941855973832759</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8506089722367847</v>
+        <v>1.6097456306928</v>
       </c>
       <c r="C16">
-        <v>0.0972242579377891</v>
+        <v>0.1060929263101897</v>
       </c>
       <c r="D16">
-        <v>0.5388594838236003</v>
+        <v>0.3937628406628022</v>
       </c>
       <c r="E16">
-        <v>0.1751170179715338</v>
+        <v>0.09149094395510105</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9964042364643433</v>
+        <v>0.5275106768475553</v>
       </c>
       <c r="H16">
-        <v>1.024802142729129</v>
+        <v>0.4057282639238196</v>
       </c>
       <c r="I16">
-        <v>1.026813385989758</v>
+        <v>0.4267122331917328</v>
       </c>
       <c r="J16">
-        <v>0.06663640341388355</v>
+        <v>0.02249552786220121</v>
       </c>
       <c r="K16">
-        <v>0.5338238279257155</v>
+        <v>1.369771356176557</v>
       </c>
       <c r="L16">
-        <v>0.4246519437874952</v>
+        <v>0.3743886938992063</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.900894516676146</v>
+        <v>0.7968238251002759</v>
       </c>
       <c r="O16">
-        <v>4.094535978430372</v>
+        <v>1.915405776675215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8322578520106845</v>
+        <v>1.543660198595603</v>
       </c>
       <c r="C17">
-        <v>0.09652319268110432</v>
+        <v>0.1040009610416774</v>
       </c>
       <c r="D17">
-        <v>0.5370180086787428</v>
+        <v>0.3827838896196596</v>
       </c>
       <c r="E17">
-        <v>0.1750203157622003</v>
+        <v>0.08984744578149417</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9974014349313052</v>
+        <v>0.521066387558804</v>
       </c>
       <c r="H17">
-        <v>1.026718759240666</v>
+        <v>0.4050692072572701</v>
       </c>
       <c r="I17">
-        <v>1.029157709909626</v>
+        <v>0.4265063401669771</v>
       </c>
       <c r="J17">
-        <v>0.06675401554012073</v>
+        <v>0.02262776689886348</v>
       </c>
       <c r="K17">
-        <v>0.5172717604865795</v>
+        <v>1.312910228471338</v>
       </c>
       <c r="L17">
-        <v>0.4220673918234326</v>
+        <v>0.3620353165099885</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.907753598032503</v>
+        <v>0.8126571323765894</v>
       </c>
       <c r="O17">
-        <v>4.100561192761973</v>
+        <v>1.900218741219192</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8217218153855015</v>
+        <v>1.505708583249543</v>
       </c>
       <c r="C18">
-        <v>0.09611902752732249</v>
+        <v>0.1027981267460305</v>
       </c>
       <c r="D18">
-        <v>0.5359800315355869</v>
+        <v>0.3765129047059759</v>
       </c>
       <c r="E18">
-        <v>0.174970653475885</v>
+        <v>0.08891278870150998</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.9980224754031468</v>
+        <v>0.5174715591947034</v>
       </c>
       <c r="H18">
-        <v>1.02785558356166</v>
+        <v>0.4047544418078672</v>
       </c>
       <c r="I18">
-        <v>1.030546429087231</v>
+        <v>0.4264704432101318</v>
       </c>
       <c r="J18">
-        <v>0.06682291393304052</v>
+        <v>0.02270551167479962</v>
       </c>
       <c r="K18">
-        <v>0.5077565315769448</v>
+        <v>1.280241418285215</v>
       </c>
       <c r="L18">
-        <v>0.420596437617462</v>
+        <v>0.3549638976548124</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.911753099074456</v>
+        <v>0.8218791920037223</v>
       </c>
       <c r="O18">
-        <v>4.104198578713067</v>
+        <v>1.891854217499457</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8181577909414841</v>
+        <v>1.492868538701231</v>
       </c>
       <c r="C19">
-        <v>0.09598202495048724</v>
+        <v>0.102390926306434</v>
       </c>
       <c r="D19">
-        <v>0.5356322348143294</v>
+        <v>0.3743970353641402</v>
       </c>
       <c r="E19">
-        <v>0.1749548631969269</v>
+        <v>0.08859812916974263</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.9982409054877905</v>
+        <v>0.5162732624164761</v>
       </c>
       <c r="H19">
-        <v>1.028246410594789</v>
+        <v>0.404658760877993</v>
       </c>
       <c r="I19">
-        <v>1.031023553850034</v>
+        <v>0.4264722569224624</v>
       </c>
       <c r="J19">
-        <v>0.06684645679488366</v>
+        <v>0.02273212261930535</v>
       </c>
       <c r="K19">
-        <v>0.5045357320649089</v>
+        <v>1.269186202901238</v>
       </c>
       <c r="L19">
-        <v>0.4201010842228641</v>
+        <v>0.3525753275160639</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.913116594690495</v>
+        <v>0.8250212001903829</v>
       </c>
       <c r="O19">
-        <v>4.105459659973064</v>
+        <v>1.889084747495218</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8342093954491929</v>
+        <v>1.550688903850897</v>
       </c>
       <c r="C20">
-        <v>0.09659791879071378</v>
+        <v>0.1042236092205684</v>
       </c>
       <c r="D20">
-        <v>0.5372118448857464</v>
+        <v>0.383948047563706</v>
       </c>
       <c r="E20">
-        <v>0.1750299934998942</v>
+        <v>0.09002129110047719</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.997290368104629</v>
+        <v>0.5217407445615692</v>
       </c>
       <c r="H20">
-        <v>1.02651116878728</v>
+        <v>0.4051326732688381</v>
       </c>
       <c r="I20">
-        <v>1.02890397956908</v>
+        <v>0.4265196672469429</v>
       </c>
       <c r="J20">
-        <v>0.06674136609856163</v>
+        <v>0.02261351516753241</v>
       </c>
       <c r="K20">
-        <v>0.5190332351954794</v>
+        <v>1.318959364917021</v>
       </c>
       <c r="L20">
-        <v>0.4223409072498185</v>
+        <v>0.3633468121643801</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.907017813367425</v>
+        <v>0.8109596829713066</v>
       </c>
       <c r="O20">
-        <v>4.099902015980547</v>
+        <v>1.901796815160083</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8883661807246597</v>
+        <v>1.745693199635014</v>
       </c>
       <c r="C21">
-        <v>0.09865606356600409</v>
+        <v>0.1103869482023327</v>
       </c>
       <c r="D21">
-        <v>0.5427719310560519</v>
+        <v>0.4165728346356161</v>
       </c>
       <c r="E21">
-        <v>0.1753535220501128</v>
+        <v>0.09493216854914266</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.9946638058899993</v>
+        <v>0.5414720854803647</v>
       </c>
       <c r="H21">
-        <v>1.021092205090824</v>
+        <v>0.4075047762090662</v>
       </c>
       <c r="I21">
-        <v>1.02226414123988</v>
+        <v>0.4276806317555284</v>
       </c>
       <c r="J21">
-        <v>0.06640320871826688</v>
+        <v>0.02223524063387305</v>
       </c>
       <c r="K21">
-        <v>0.5678020620940174</v>
+        <v>1.486648561963221</v>
       </c>
       <c r="L21">
-        <v>0.4300525546867249</v>
+        <v>0.3999529792528449</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.887175937723164</v>
+        <v>0.7651061081722013</v>
       </c>
       <c r="O21">
-        <v>4.083281429730647</v>
+        <v>1.949015625930969</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9239245206647979</v>
+        <v>1.873761132581109</v>
       </c>
       <c r="C22">
-        <v>0.09999273502953088</v>
+        <v>0.1144214528683705</v>
       </c>
       <c r="D22">
-        <v>0.5465933499265816</v>
+        <v>0.4383196359972317</v>
       </c>
       <c r="E22">
-        <v>0.1756177601106721</v>
+        <v>0.09824301163390103</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.9933695326831185</v>
+        <v>0.5554433101777363</v>
       </c>
       <c r="H22">
-        <v>1.017856537560434</v>
+        <v>0.4096631829024773</v>
       </c>
       <c r="I22">
-        <v>1.01828321479168</v>
+        <v>0.4292225148139224</v>
       </c>
       <c r="J22">
-        <v>0.06619330152678948</v>
+        <v>0.02200334052894082</v>
       </c>
       <c r="K22">
-        <v>0.5997159577314335</v>
+        <v>1.596644667498339</v>
       </c>
       <c r="L22">
-        <v>0.4352304400901659</v>
+        <v>0.4242107738371317</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.874691899932079</v>
+        <v>0.7362107186071132</v>
       </c>
       <c r="O22">
-        <v>4.073946722725111</v>
+        <v>1.983421473494616</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9049316640746952</v>
+        <v>1.805347167176649</v>
       </c>
       <c r="C23">
-        <v>0.09928010854380886</v>
+        <v>0.1122674348743047</v>
       </c>
       <c r="D23">
-        <v>0.5445366772943316</v>
+        <v>0.4266723790890978</v>
       </c>
       <c r="E23">
-        <v>0.1754719134651559</v>
+        <v>0.09646635460570252</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.9940216886972877</v>
+        <v>0.5478841415782512</v>
       </c>
       <c r="H23">
-        <v>1.019555515604068</v>
+        <v>0.4084537782777318</v>
       </c>
       <c r="I23">
-        <v>1.020375123479575</v>
+        <v>0.4283255070897596</v>
       </c>
       <c r="J23">
-        <v>0.06630431947790427</v>
+        <v>0.0221256915554866</v>
       </c>
       <c r="K23">
-        <v>0.5826794150010812</v>
+        <v>1.537896946562711</v>
       </c>
       <c r="L23">
-        <v>0.4324543447012701</v>
+        <v>0.4112318282274856</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.88131060504182</v>
+        <v>0.7515322309330692</v>
       </c>
       <c r="O23">
-        <v>4.078789154446923</v>
+        <v>1.964721698821563</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8333270581564989</v>
+        <v>1.547511097111197</v>
       </c>
       <c r="C24">
-        <v>0.0965641385826288</v>
+        <v>0.1041229504314956</v>
       </c>
       <c r="D24">
-        <v>0.5371241470115535</v>
+        <v>0.3834216045489853</v>
       </c>
       <c r="E24">
-        <v>0.1750255997110592</v>
+        <v>0.08994266389514749</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.9973404327124769</v>
+        <v>0.5214355257614898</v>
       </c>
       <c r="H24">
-        <v>1.026604911600018</v>
+        <v>0.4051037809035591</v>
       </c>
       <c r="I24">
-        <v>1.029018563537413</v>
+        <v>0.4265133857108161</v>
       </c>
       <c r="J24">
-        <v>0.06674708091856907</v>
+        <v>0.022619953025103</v>
       </c>
       <c r="K24">
-        <v>0.5182368700139648</v>
+        <v>1.316224484499656</v>
       </c>
       <c r="L24">
-        <v>0.4222172043799901</v>
+        <v>0.3627537896899042</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.907350286790439</v>
+        <v>0.8117267288275478</v>
       </c>
       <c r="O24">
-        <v>4.100199489616898</v>
+        <v>1.90108222838532</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7568210759460783</v>
+        <v>1.271598373274088</v>
       </c>
       <c r="C25">
-        <v>0.09359901468520349</v>
+        <v>0.09535206414212638</v>
       </c>
       <c r="D25">
-        <v>0.5299393105586461</v>
+        <v>0.3384259454115721</v>
       </c>
       <c r="E25">
-        <v>0.174772125453476</v>
+        <v>0.08330916451838632</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.002735669575571</v>
+        <v>0.49713760350717</v>
       </c>
       <c r="H25">
-        <v>1.035525865861487</v>
+        <v>0.4039306123791135</v>
       </c>
       <c r="I25">
-        <v>1.039883968608088</v>
+        <v>0.427689001490446</v>
       </c>
       <c r="J25">
-        <v>0.06727252552293628</v>
+        <v>0.0232173229499093</v>
       </c>
       <c r="K25">
-        <v>0.4489219365526367</v>
+        <v>1.078458443840475</v>
       </c>
       <c r="L25">
-        <v>0.4117722823806531</v>
+        <v>0.3117427905556696</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.937515936779519</v>
+        <v>0.8810348991564343</v>
       </c>
       <c r="O25">
-        <v>4.129865273353431</v>
+        <v>1.846481581938804</v>
       </c>
     </row>
   </sheetData>
